--- a/va_facility_data_2025-02-20/Pickens County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pickens%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Pickens County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pickens%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R89e5a9e48ff6413abcf84529592559ba"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3e1e0fb3b4884cbfaef9d2b8afeb6182"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6b65ab04071d46bba5201bef7b25e4d2"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re4d7609a589e400f9c87d08958d02937"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R76a2db9381f64ec3af5e2504f74ec0a8"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Refec77d2a8ac4af09bcfc633b0f83371"/>
   </x:sheets>
 </x:workbook>
 </file>
